--- a/docs/REGLA.xlsx
+++ b/docs/REGLA.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miria\Documents\Mirko\Python Projects\sms-vacaciones\src\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\VACACIONES _APOYOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3758ACEA-3CB3-4448-8BDC-862F6DE1EF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="TEXTO" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,16 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>TEXTO_1</t>
-  </si>
-  <si>
-    <t>TEXTO_2</t>
-  </si>
-  <si>
-    <t>TEXTO_3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">,Text,"Estimado Socio: Le informamos que su analista </t>
   </si>
@@ -53,20 +43,20 @@
     <t xml:space="preserve">. Quien quedara a cargo de la cuenta comercial sera el/la analista </t>
   </si>
   <si>
-    <t>TEXTO_4</t>
-  </si>
-  <si>
     <t xml:space="preserve">, se encontra de vacaciones hasta el dia </t>
   </si>
   <si>
     <t>. Gracias por su comprension. Creditos y Cobranzas Distribuidores le desea un excelente dia"</t>
   </si>
+  <si>
+    <t>TEXTO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,13 +85,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -131,15 +140,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,42 +488,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="29.1796875" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.375" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="16384" width="29.1796875" style="3"/>
+    <col min="1" max="1" width="78.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="12.375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" s="3" customFormat="1" ht="15">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" s="4" customFormat="1" ht="14.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:1" s="4" customFormat="1" ht="14.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" s="4" customFormat="1" ht="14.25">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="5" spans="1:1" s="4" customFormat="1" ht="14.25">
+      <c r="A5" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
